--- a/数据操作/test.xlsx
+++ b/数据操作/test.xlsx
@@ -230,11 +230,11 @@
     <t>Y20</t>
   </si>
   <si>
-    <t>no emission</t>
+    <t>PASS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PASS</t>
+    <t>无尾气</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>46</v>
@@ -970,7 +970,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -978,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>47</v>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -998,7 +998,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>48</v>
@@ -1010,7 +1010,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1018,7 +1018,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>49</v>
@@ -1030,7 +1030,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1038,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>50</v>
@@ -1050,7 +1050,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1058,7 +1058,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>51</v>
@@ -1070,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1078,7 +1078,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>52</v>
@@ -1090,7 +1090,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1098,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>53</v>
@@ -1110,7 +1110,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1118,7 +1118,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>54</v>
@@ -1130,7 +1130,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1138,7 +1138,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>55</v>
@@ -1150,7 +1150,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1158,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>56</v>
@@ -1170,7 +1170,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1178,7 +1178,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>57</v>
@@ -1190,7 +1190,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1198,7 +1198,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>58</v>
@@ -1210,7 +1210,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1218,7 +1218,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>59</v>
@@ -1230,7 +1230,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1238,7 +1238,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>60</v>
@@ -1250,7 +1250,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1258,7 +1258,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>61</v>
@@ -1270,7 +1270,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1278,7 +1278,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>62</v>
@@ -1290,7 +1290,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1298,7 +1298,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>63</v>
@@ -1310,7 +1310,7 @@
         <v>17</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1318,7 +1318,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>64</v>
@@ -1330,7 +1330,7 @@
         <v>18</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1338,7 +1338,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>65</v>
@@ -1350,7 +1350,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
